--- a/Datos/quincena.xlsx
+++ b/Datos/quincena.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HeadHunters\Desktop\Documents\GitHub\proyecto\Datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D4CDF2ED-2B2B-4D20-A288-905069289C1E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0DAD5ACF-287E-4376-A5B8-3DE7DE8653BF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7245" xr2:uid="{5C687F13-986D-4358-82FD-E2A7EB9C45C1}"/>
   </bookViews>
@@ -25,12 +25,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>2018-04-22</t>
   </si>
   <si>
     <t>2018-05-07</t>
+  </si>
+  <si>
+    <t>idquincena</t>
+  </si>
+  <si>
+    <t>inicio</t>
+  </si>
+  <si>
+    <t>fin</t>
   </si>
 </sst>
 </file>
@@ -66,10 +75,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -386,29 +398,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46C870CA-9F9B-4CC1-8EE1-43F53925E74F}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2">
+      <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
@@ -490,6 +508,11 @@
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
     </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Datos/quincena.xlsx
+++ b/Datos/quincena.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HeadHunters\Desktop\Documents\GitHub\proyecto\Datos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonat\Documents\GitHub\iso\proyecto\Datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0DAD5ACF-287E-4376-A5B8-3DE7DE8653BF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{046FB6A6-39AA-47E3-BC95-D9BCFEA05E22}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7245" xr2:uid="{5C687F13-986D-4358-82FD-E2A7EB9C45C1}"/>
   </bookViews>
@@ -25,13 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>2018-04-22</t>
-  </si>
-  <si>
-    <t>2018-05-07</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="37">
   <si>
     <t>idquincena</t>
   </si>
@@ -40,6 +34,108 @@
   </si>
   <si>
     <t>fin</t>
+  </si>
+  <si>
+    <t>31/04/2018</t>
+  </si>
+  <si>
+    <t>31/06/2018</t>
+  </si>
+  <si>
+    <t>31/09/2018</t>
+  </si>
+  <si>
+    <t>31/11/2018</t>
+  </si>
+  <si>
+    <t>quincenareportada</t>
+  </si>
+  <si>
+    <t>2018-1</t>
+  </si>
+  <si>
+    <t>2018-2</t>
+  </si>
+  <si>
+    <t>2018-3</t>
+  </si>
+  <si>
+    <t>2018-4</t>
+  </si>
+  <si>
+    <t>2018-5</t>
+  </si>
+  <si>
+    <t>2018-6</t>
+  </si>
+  <si>
+    <t>2018-7</t>
+  </si>
+  <si>
+    <t>2018-8</t>
+  </si>
+  <si>
+    <t>2018-9</t>
+  </si>
+  <si>
+    <t>2018-10</t>
+  </si>
+  <si>
+    <t>2018-11</t>
+  </si>
+  <si>
+    <t>2018-12</t>
+  </si>
+  <si>
+    <t>2018-13</t>
+  </si>
+  <si>
+    <t>2018-14</t>
+  </si>
+  <si>
+    <t>2018-15</t>
+  </si>
+  <si>
+    <t>2018-16</t>
+  </si>
+  <si>
+    <t>2018-17</t>
+  </si>
+  <si>
+    <t>2018-18</t>
+  </si>
+  <si>
+    <t>2018-19</t>
+  </si>
+  <si>
+    <t>2018-20</t>
+  </si>
+  <si>
+    <t>2018-21</t>
+  </si>
+  <si>
+    <t>2018-22</t>
+  </si>
+  <si>
+    <t>2018-23</t>
+  </si>
+  <si>
+    <t>2018-24</t>
+  </si>
+  <si>
+    <t>quincenaenqueseraprocesada</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>habil</t>
+  </si>
+  <si>
+    <t>FALSE</t>
+  </si>
+  <si>
+    <t>TRUE</t>
   </si>
 </sst>
 </file>
@@ -75,13 +171,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -398,120 +499,519 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46C870CA-9F9B-4CC1-8EE1-43F53925E74F}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>43101</v>
+      </c>
+      <c r="C2" s="3">
+        <v>43115</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>43116</v>
+      </c>
+      <c r="C3" s="3">
+        <v>43131</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="B4" s="3">
+        <v>43132</v>
+      </c>
+      <c r="C4" s="3">
+        <v>43146</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
+      <c r="B5" s="3">
+        <v>43147</v>
+      </c>
+      <c r="C5" s="3">
+        <v>43159</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
+        <v>43160</v>
+      </c>
+      <c r="C6" s="3">
+        <v>43174</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
+        <v>43175</v>
+      </c>
+      <c r="C7" s="3">
+        <v>43190</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3">
+        <v>43191</v>
+      </c>
+      <c r="C8" s="3">
+        <v>43205</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3">
+        <v>43206</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3">
+        <v>43221</v>
+      </c>
+      <c r="C10" s="3">
+        <v>43235</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3">
+        <v>43236</v>
+      </c>
+      <c r="C11" s="3">
+        <v>43251</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3">
+        <v>43252</v>
+      </c>
+      <c r="C12" s="3">
+        <v>43266</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3">
+        <v>43267</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3">
+        <v>43282</v>
+      </c>
+      <c r="C14" s="3">
+        <v>43296</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3">
+        <v>43297</v>
+      </c>
+      <c r="C15" s="3">
+        <v>43312</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3">
+        <v>43313</v>
+      </c>
+      <c r="C16" s="3">
+        <v>43327</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3">
+        <v>43328</v>
+      </c>
+      <c r="C17" s="3">
+        <v>43343</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3">
+        <v>43344</v>
+      </c>
+      <c r="C18" s="3">
+        <v>43358</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3">
+        <v>43359</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3">
+        <v>43374</v>
+      </c>
+      <c r="C20" s="3">
+        <v>43388</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3">
+        <v>43389</v>
+      </c>
+      <c r="C21" s="3">
+        <v>43404</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3">
+        <v>43405</v>
+      </c>
+      <c r="C22" s="3">
+        <v>43419</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3">
+        <v>43420</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3">
+        <v>43435</v>
+      </c>
+      <c r="C24" s="3">
+        <v>43449</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3">
+        <v>43450</v>
+      </c>
+      <c r="C25" s="3">
+        <v>43465</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Datos/quincena.xlsx
+++ b/Datos/quincena.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonat\Documents\GitHub\iso\proyecto\Datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{046FB6A6-39AA-47E3-BC95-D9BCFEA05E22}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DA88EAC-EB78-46A9-BA96-2F6F9C409D17}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7245" xr2:uid="{5C687F13-986D-4358-82FD-E2A7EB9C45C1}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="38">
   <si>
     <t>idquincena</t>
   </si>
@@ -136,6 +136,9 @@
   </si>
   <si>
     <t>TRUE</t>
+  </si>
+  <si>
+    <t>fechalimpersonal</t>
   </si>
 </sst>
 </file>
@@ -499,10 +502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46C870CA-9F9B-4CC1-8EE1-43F53925E74F}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -511,9 +514,10 @@
     <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -532,8 +536,11 @@
       <c r="F1" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -552,8 +559,11 @@
       <c r="F2" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" s="3">
+        <v>43115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -572,8 +582,11 @@
       <c r="F3" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" s="3">
+        <v>43131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -592,8 +605,11 @@
       <c r="F4" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" s="3">
+        <v>43146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -612,8 +628,11 @@
       <c r="F5" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" s="3">
+        <v>43159</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -632,8 +651,11 @@
       <c r="F6" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" s="3">
+        <v>43174</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -652,8 +674,11 @@
       <c r="F7" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" s="3">
+        <v>43190</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -672,8 +697,11 @@
       <c r="F8" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" s="3">
+        <v>43205</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -692,8 +720,11 @@
       <c r="F9" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -712,8 +743,11 @@
       <c r="F10" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" s="3">
+        <v>43235</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -732,8 +766,11 @@
       <c r="F11" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11" s="3">
+        <v>43251</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -752,8 +789,11 @@
       <c r="F12" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12" s="3">
+        <v>43266</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -772,8 +812,11 @@
       <c r="F13" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -792,8 +835,11 @@
       <c r="F14" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14" s="3">
+        <v>43296</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -812,8 +858,11 @@
       <c r="F15" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15" s="3">
+        <v>43312</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -832,8 +881,11 @@
       <c r="F16" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16" s="3">
+        <v>43327</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -852,8 +904,11 @@
       <c r="F17" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17" s="3">
+        <v>43343</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -872,8 +927,11 @@
       <c r="F18" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18" s="3">
+        <v>43358</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -892,8 +950,11 @@
       <c r="F19" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -912,8 +973,11 @@
       <c r="F20" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20" s="3">
+        <v>43388</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -932,8 +996,11 @@
       <c r="F21" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21" s="3">
+        <v>43404</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -952,8 +1019,11 @@
       <c r="F22" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22" s="3">
+        <v>43419</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -972,8 +1042,11 @@
       <c r="F23" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -992,8 +1065,11 @@
       <c r="F24" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G24" s="3">
+        <v>43449</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -1011,6 +1087,9 @@
       </c>
       <c r="F25" s="2" t="s">
         <v>35</v>
+      </c>
+      <c r="G25" s="3">
+        <v>43465</v>
       </c>
     </row>
   </sheetData>

--- a/Datos/quincena.xlsx
+++ b/Datos/quincena.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonat\Documents\GitHub\iso\proyecto\Datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{936B1D3F-D74D-4D4A-ABD9-7841D8DA6251}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79DE37B1-4860-430E-A5F4-F268C2DABAAA}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8940"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="quincena" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>idquincena</t>
   </si>
@@ -37,18 +37,12 @@
     <t>quincenaenqueseraprocesada</t>
   </si>
   <si>
-    <t>habil</t>
-  </si>
-  <si>
     <t>fechalimite</t>
   </si>
   <si>
     <t>2018-1</t>
   </si>
   <si>
-    <t>TRUE</t>
-  </si>
-  <si>
     <t>2018-2</t>
   </si>
   <si>
@@ -80,9 +74,6 @@
   </si>
   <si>
     <t>2018-12</t>
-  </si>
-  <si>
-    <t>FALSE</t>
   </si>
   <si>
     <t>2018-13</t>
@@ -127,7 +118,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -963,20 +954,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -996,13 +988,10 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1013,22 +1002,19 @@
         <v>43115</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E2">
         <v>3</v>
       </c>
-      <c r="F2" t="s">
-        <v>8</v>
+      <c r="F2" s="2">
+        <v>43125.583333333336</v>
       </c>
       <c r="G2" s="2">
         <v>43125.583333333336</v>
       </c>
-      <c r="H2" s="2">
-        <v>43125.583333333336</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1039,22 +1025,19 @@
         <v>43131</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E3">
         <v>4</v>
       </c>
-      <c r="F3" t="s">
-        <v>8</v>
+      <c r="F3" s="2">
+        <v>43283.583333333336</v>
       </c>
       <c r="G3" s="2">
         <v>43283.583333333336</v>
       </c>
-      <c r="H3" s="2">
-        <v>43283.583333333336</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1065,22 +1048,19 @@
         <v>43146</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E4">
         <v>5</v>
       </c>
-      <c r="F4" t="s">
-        <v>8</v>
+      <c r="F4" s="2">
+        <v>43153.583333333336</v>
       </c>
       <c r="G4" s="2">
         <v>43153.583333333336</v>
       </c>
-      <c r="H4" s="2">
-        <v>43153.583333333336</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1091,22 +1071,19 @@
         <v>43159</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E5">
         <v>6</v>
       </c>
-      <c r="F5" t="s">
-        <v>8</v>
+      <c r="F5" s="2">
+        <v>43284.583333333336</v>
       </c>
       <c r="G5" s="2">
         <v>43284.583333333336</v>
       </c>
-      <c r="H5" s="2">
-        <v>43284.583333333336</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1117,22 +1094,19 @@
         <v>43174</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E6">
         <v>7</v>
       </c>
-      <c r="F6" t="s">
-        <v>8</v>
+      <c r="F6" s="2">
+        <v>43181.583333333336</v>
       </c>
       <c r="G6" s="2">
         <v>43181.583333333336</v>
       </c>
-      <c r="H6" s="2">
-        <v>43181.583333333336</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1143,22 +1117,19 @@
         <v>43190</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E7">
         <v>8</v>
       </c>
-      <c r="F7" t="s">
-        <v>8</v>
+      <c r="F7" s="2">
+        <v>43255.583333333336</v>
       </c>
       <c r="G7" s="2">
         <v>43255.583333333336</v>
       </c>
-      <c r="H7" s="2">
-        <v>43255.583333333336</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1169,22 +1140,19 @@
         <v>43205</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E8">
         <v>9</v>
       </c>
-      <c r="F8" t="s">
-        <v>8</v>
+      <c r="F8" s="2">
+        <v>43210.583333333336</v>
       </c>
       <c r="G8" s="2">
         <v>43210.583333333336</v>
       </c>
-      <c r="H8" s="2">
-        <v>43210.583333333336</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1195,22 +1163,19 @@
         <v>43220</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E9">
         <v>10</v>
       </c>
-      <c r="F9" t="s">
-        <v>8</v>
+      <c r="F9" s="2">
+        <v>43286.583333333336</v>
       </c>
       <c r="G9" s="2">
         <v>43286.583333333336</v>
       </c>
-      <c r="H9" s="2">
-        <v>43286.583333333336</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1221,22 +1186,19 @@
         <v>43235</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E10">
         <v>11</v>
       </c>
-      <c r="F10" t="s">
-        <v>8</v>
+      <c r="F10" s="2">
+        <v>43242.583333333336</v>
       </c>
       <c r="G10" s="2">
         <v>43242.583333333336</v>
       </c>
-      <c r="H10" s="2">
-        <v>43242.583333333336</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1247,22 +1209,19 @@
         <v>43251</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E11">
         <v>12</v>
       </c>
-      <c r="F11" t="s">
-        <v>8</v>
+      <c r="F11" s="2">
+        <v>43226.583333333336</v>
       </c>
       <c r="G11" s="2">
         <v>43226.583333333336</v>
       </c>
-      <c r="H11" s="2">
-        <v>43226.583333333336</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1273,22 +1232,19 @@
         <v>43266</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E12">
         <v>13</v>
       </c>
-      <c r="F12" t="s">
-        <v>8</v>
+      <c r="F12" s="2">
+        <v>43269.583333333336</v>
       </c>
       <c r="G12" s="2">
         <v>43269.583333333336</v>
       </c>
-      <c r="H12" s="2">
-        <v>43269.583333333336</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1299,22 +1255,19 @@
         <v>43281</v>
       </c>
       <c r="D13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E13">
         <v>14</v>
       </c>
-      <c r="F13" t="s">
-        <v>20</v>
+      <c r="F13" s="2">
+        <v>43258.583333333336</v>
       </c>
       <c r="G13" s="2">
         <v>43258.583333333336</v>
       </c>
-      <c r="H13" s="2">
-        <v>43258.583333333336</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1325,22 +1278,19 @@
         <v>43296</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E14">
         <v>15</v>
       </c>
-      <c r="F14" t="s">
-        <v>8</v>
+      <c r="F14" s="2">
+        <v>43289.583333333336</v>
       </c>
       <c r="G14" s="2">
         <v>43289.583333333336</v>
       </c>
-      <c r="H14" s="2">
-        <v>43289.583333333336</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1351,22 +1301,19 @@
         <v>43312</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E15">
         <v>16</v>
       </c>
-      <c r="F15" t="s">
-        <v>8</v>
+      <c r="F15" s="2">
+        <v>43334.584027777775</v>
       </c>
       <c r="G15" s="2">
         <v>43334.584027777775</v>
       </c>
-      <c r="H15" s="2">
-        <v>43334.584027777775</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1377,22 +1324,19 @@
         <v>43327</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E16">
         <v>17</v>
       </c>
-      <c r="F16" t="s">
-        <v>8</v>
+      <c r="F16" s="2">
+        <v>43334.583333333336</v>
       </c>
       <c r="G16" s="2">
         <v>43334.583333333336</v>
       </c>
-      <c r="H16" s="2">
-        <v>43334.583333333336</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1403,22 +1347,19 @@
         <v>43343</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E17">
         <v>18</v>
       </c>
-      <c r="F17" t="s">
-        <v>8</v>
+      <c r="F17" s="2">
+        <v>43290.583333333336</v>
       </c>
       <c r="G17" s="2">
         <v>43290.583333333336</v>
       </c>
-      <c r="H17" s="2">
-        <v>43290.583333333336</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1429,22 +1370,19 @@
         <v>43358</v>
       </c>
       <c r="D18" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E18">
         <v>19</v>
       </c>
-      <c r="F18" t="s">
-        <v>8</v>
+      <c r="F18" s="2">
+        <v>43364.583333333336</v>
       </c>
       <c r="G18" s="2">
         <v>43364.583333333336</v>
       </c>
-      <c r="H18" s="2">
-        <v>43364.583333333336</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1455,22 +1393,19 @@
         <v>43373</v>
       </c>
       <c r="D19" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E19">
         <v>20</v>
       </c>
-      <c r="F19" t="s">
-        <v>8</v>
+      <c r="F19" s="2">
+        <v>43230.583333333336</v>
       </c>
       <c r="G19" s="2">
         <v>43230.583333333336</v>
       </c>
-      <c r="H19" s="2">
-        <v>43230.583333333336</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1481,22 +1416,19 @@
         <v>43388</v>
       </c>
       <c r="D20" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E20">
         <v>21</v>
       </c>
-      <c r="F20" t="s">
-        <v>8</v>
+      <c r="F20" s="2">
+        <v>43395.583333333336</v>
       </c>
       <c r="G20" s="2">
         <v>43395.583333333336</v>
       </c>
-      <c r="H20" s="2">
-        <v>43395.583333333336</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1507,22 +1439,19 @@
         <v>43404</v>
       </c>
       <c r="D21" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E21">
         <v>22</v>
       </c>
-      <c r="F21" t="s">
-        <v>8</v>
+      <c r="F21" s="2">
+        <v>43354.583333333336</v>
       </c>
       <c r="G21" s="2">
         <v>43354.583333333336</v>
       </c>
-      <c r="H21" s="2">
-        <v>43354.583333333336</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1533,22 +1462,19 @@
         <v>43419</v>
       </c>
       <c r="D22" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E22">
         <v>23</v>
       </c>
-      <c r="F22" t="s">
-        <v>8</v>
+      <c r="F22" s="2">
+        <v>43427.583333333336</v>
       </c>
       <c r="G22" s="2">
         <v>43427.583333333336</v>
       </c>
-      <c r="H22" s="2">
-        <v>43427.583333333336</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1559,22 +1485,19 @@
         <v>43434</v>
       </c>
       <c r="D23" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E23">
         <v>24</v>
       </c>
-      <c r="F23" t="s">
-        <v>8</v>
+      <c r="F23" s="2">
+        <v>43293.583333333336</v>
       </c>
       <c r="G23" s="2">
         <v>43293.583333333336</v>
       </c>
-      <c r="H23" s="2">
-        <v>43293.583333333336</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1585,22 +1508,19 @@
         <v>43449</v>
       </c>
       <c r="D24" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E24">
         <v>1</v>
       </c>
-      <c r="F24" t="s">
-        <v>20</v>
+      <c r="F24" s="2">
+        <v>43490.583333333336</v>
       </c>
       <c r="G24" s="2">
         <v>43490.583333333336</v>
       </c>
-      <c r="H24" s="2">
-        <v>43490.583333333336</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1611,18 +1531,15 @@
         <v>43465</v>
       </c>
       <c r="D25" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E25">
         <v>1</v>
       </c>
-      <c r="F25" t="s">
-        <v>20</v>
+      <c r="F25" s="2">
+        <v>43490.584027777775</v>
       </c>
       <c r="G25" s="2">
-        <v>43490.584027777775</v>
-      </c>
-      <c r="H25" s="2">
         <v>43490.584027777775</v>
       </c>
     </row>
